--- a/TestCasesReport/OrangeHRM Test Report.xlsx
+++ b/TestCasesReport/OrangeHRM Test Report.xlsx
@@ -53,9 +53,6 @@
     <t>Total [Passed + Failed] Test Cases</t>
   </si>
   <si>
-    <t>System Testing</t>
-  </si>
-  <si>
     <t>Feature / Component</t>
   </si>
   <si>
@@ -135,6 +132,9 @@
   </si>
   <si>
     <t>Verify password has changed for existing User</t>
+  </si>
+  <si>
+    <t>Sanitory Testing</t>
   </si>
 </sst>
 </file>
@@ -1296,8 +1296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="J59" sqref="J59:J61"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1316,7 +1316,7 @@
     <row r="4" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="87" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="88"/>
       <c r="D5" s="88"/>
@@ -1363,7 +1363,7 @@
       <c r="C9" s="97"/>
       <c r="D9" s="38"/>
       <c r="E9" s="126" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F9" s="100"/>
       <c r="G9" s="100"/>
@@ -1436,7 +1436,7 @@
       <c r="F15" s="109"/>
       <c r="G15" s="110"/>
       <c r="H15" s="75">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I15" s="76"/>
     </row>
@@ -1471,7 +1471,7 @@
       <c r="G18" s="119"/>
       <c r="H18" s="81">
         <f>SUM(H12:I17)</f>
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I18" s="82"/>
     </row>
@@ -1608,7 +1608,7 @@
       <c r="G30" s="165"/>
       <c r="H30" s="145">
         <f>SUM(H18:I29)</f>
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I30" s="84"/>
     </row>
@@ -1675,23 +1675,23 @@
     <row r="37" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C38" s="36"/>
       <c r="D38" s="35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E38" s="36"/>
       <c r="F38" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G38" s="36"/>
       <c r="H38" s="41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I38" s="31"/>
       <c r="J38" s="31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1718,11 +1718,11 @@
     </row>
     <row r="41" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C41" s="47"/>
       <c r="D41" s="46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E41" s="47"/>
       <c r="F41" s="48">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="I41" s="51"/>
       <c r="J41" s="34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
@@ -1761,11 +1761,11 @@
     </row>
     <row r="44" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="12">
@@ -1777,7 +1777,7 @@
       </c>
       <c r="I44" s="19"/>
       <c r="J44" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
@@ -1804,11 +1804,11 @@
     </row>
     <row r="47" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="12">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="I47" s="19"/>
       <c r="J47" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
@@ -1847,11 +1847,11 @@
     </row>
     <row r="50" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E50" s="7"/>
       <c r="F50" s="24">
@@ -1863,7 +1863,7 @@
       </c>
       <c r="I50" s="26"/>
       <c r="J50" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
@@ -1890,11 +1890,11 @@
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="24">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="I53" s="26"/>
       <c r="J53" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
@@ -1933,11 +1933,11 @@
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="172">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="I56" s="26"/>
       <c r="J56" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
@@ -1976,11 +1976,11 @@
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="24">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="I59" s="53"/>
       <c r="J59" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
@@ -2019,11 +2019,11 @@
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62" s="58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="24">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="I62" s="19"/>
       <c r="J62" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
@@ -2062,11 +2062,11 @@
     </row>
     <row r="65" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E65" s="7"/>
       <c r="F65" s="24">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="I65" s="19"/>
       <c r="J65" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
